--- a/Material/Auswertungsbogen.xlsx
+++ b/Material/Auswertungsbogen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25410" windowHeight="12750"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,15 +944,6 @@
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>89</v>
-      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -1348,6 +1339,15 @@
       <c r="A63" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -1358,6 +1358,9 @@
       <c r="A65" t="s">
         <v>50</v>
       </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">

--- a/Material/Auswertungsbogen.xlsx
+++ b/Material/Auswertungsbogen.xlsx
@@ -163,9 +163,6 @@
     <t>Performance</t>
   </si>
   <si>
-    <t>im Vergleich zur nativen Anwendung</t>
-  </si>
-  <si>
     <t>Speichergröße der Anwendung</t>
   </si>
   <si>
@@ -296,6 +293,9 @@
   </si>
   <si>
     <t>Auf welchen OS kann entwickelt werden?</t>
+  </si>
+  <si>
+    <t>Performance und Speichergröße der Anwendung</t>
   </si>
 </sst>
 </file>
@@ -741,7 +741,7 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -776,27 +776,27 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -804,13 +804,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -829,18 +829,18 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5"/>
@@ -880,7 +880,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="5"/>
@@ -931,13 +931,13 @@
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,7 +951,7 @@
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -960,27 +960,27 @@
         <v>19</v>
       </c>
       <c r="C27" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -988,13 +988,13 @@
         <v>20</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1007,13 +1007,13 @@
         <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1021,13 +1021,13 @@
         <v>23</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1035,13 +1035,13 @@
         <v>24</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1049,13 +1049,13 @@
         <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,13 +1063,13 @@
         <v>26</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1077,13 +1077,13 @@
         <v>27</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,13 +1091,13 @@
         <v>28</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>66</v>
-      </c>
       <c r="E38" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1105,13 +1105,13 @@
         <v>29</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,13 +1119,13 @@
         <v>30</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,13 +1133,13 @@
         <v>31</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1147,13 +1147,13 @@
         <v>32</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1161,13 +1161,13 @@
         <v>33</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1175,13 +1175,13 @@
         <v>34</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,13 +1194,13 @@
         <v>36</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1208,13 +1208,13 @@
         <v>37</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1222,13 +1222,13 @@
         <v>38</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="E49" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,7 +1241,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="8"/>
@@ -1257,13 +1257,13 @@
         <v>41</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,13 +1271,13 @@
         <v>42</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1285,13 +1285,13 @@
         <v>43</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="E56" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1299,13 +1299,13 @@
         <v>44</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1318,13 +1318,13 @@
         <v>46</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1337,7 +1337,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>3</v>
@@ -1346,17 +1346,20 @@
         <v>4</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>49</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="9"/>
@@ -1364,54 +1367,54 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C68" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>88</v>
-      </c>
       <c r="E68" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">

--- a/Material/Auswertungsbogen.xlsx
+++ b/Material/Auswertungsbogen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="94">
   <si>
     <t>Kosten, Lizenz</t>
   </si>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,15 +1339,9 @@
       <c r="A63" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
